--- a/assets/templates/attendify_course_import_template.xlsx
+++ b/assets/templates/attendify_course_import_template.xlsx
@@ -1,38 +1,150 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngocanh/Code/chuyen_de_1/src/attendify/assets/templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{889A7ADA-53DC-8F44-9886-E17DEF0A7961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Courses" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="README" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Courses" sheetId="1" r:id="rId1"/>
+    <sheet name="README" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>courseCode</t>
+  </si>
+  <si>
+    <t>courseName</t>
+  </si>
+  <si>
+    <t>credits</t>
+  </si>
+  <si>
+    <t>Attendify - Course Import Template</t>
+  </si>
+  <si>
+    <t>• Sheet dữ liệu: 'Courses'</t>
+  </si>
+  <si>
+    <t>• Header bắt buộc (dòng 1): courseCode | courseName | credits</t>
+  </si>
+  <si>
+    <t>• credits: số nguyên từ 0..50 (có thể để trống) — đã đặt sẵn Data Validation cho cả cột từ dòng 2 trở đi.</t>
+  </si>
+  <si>
+    <t>• Vui lòng không sửa tên cột. Có thể để trống một vài ô nếu hệ thống cho phép.</t>
+  </si>
+  <si>
+    <t>Ví dụ:</t>
+  </si>
+  <si>
+    <t>courseCode | courseName | credits</t>
+  </si>
+  <si>
+    <t>CS101      | Intro to Programming | 3</t>
+  </si>
+  <si>
+    <t>maxStudents</t>
+  </si>
+  <si>
+    <t>minStudents</t>
+  </si>
+  <si>
+    <t>weeklySchedule</t>
+  </si>
+  <si>
+    <t>CWD</t>
+  </si>
+  <si>
+    <t>cài win dạo</t>
+  </si>
+  <si>
+    <t>[{"weekday":1,"startTime":"7:00","endTime":"9:00","room":"A102"}]</t>
+  </si>
+  <si>
+    <t>PRO192</t>
+  </si>
+  <si>
+    <t>Lập trình Java 1</t>
+  </si>
+  <si>
+    <t>[{"weekday":2,"startTime":"9:00","endTime":"11:00","room":"B301"},{"weekday":4,"startTime":"9:00","endTime":"11:00","room":"B301"}]</t>
+  </si>
+  <si>
+    <t>DBI202</t>
+  </si>
+  <si>
+    <t>Cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>[{"weekday":5,"startTime":"13:00","endTime":"15:00","room":"C105"}]</t>
+  </si>
+  <si>
+    <t>lecturerEmail</t>
+  </si>
+  <si>
+    <t>gv@gmail.com</t>
+  </si>
+  <si>
+    <t>gv1@gmail.com</t>
+  </si>
+  <si>
+    <t>gv2@gmail.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,111 +162,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Attendify</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <t>Mã môn học (duy nhất). Ví dụ: CS101</t>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <t>Tên môn học. Ví dụ: Nhập môn Lập trình</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <t>Số tín chỉ. Chỉ số nguyên, có thể để trống.</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,128 +469,182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col width="24" customWidth="1" min="1" max="1"/>
-    <col width="36" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
+    <col min="1" max="1" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="146.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>courseCode</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>courseName</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>credits</t>
-        </is>
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4">
+        <v>30</v>
+      </c>
+      <c r="F2" s="4">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4">
+        <v>40</v>
+      </c>
+      <c r="F3" s="4">
+        <v>15</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4">
+        <v>35</v>
+      </c>
+      <c r="F4" s="4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="C2:C1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="Giá trị không hợp lệ" error="Chỉ được nhập số nguyên từ 0 đến 50 (hoặc để trống)." promptTitle="Credits" prompt="Nhập số nguyên từ 0 đến 50 (hoặc để trống)." type="whole" operator="between">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Giá trị không hợp lệ" error="Chỉ được nhập số nguyên từ 0 đến 50 (hoặc để trống)." promptTitle="Credits" prompt="Nhập số nguyên từ 0 đến 50 (hoặc để trống)." sqref="B5:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>50</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{07954A29-F6A3-874C-9AA9-6B4D8F032E0C}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{77C4416A-6D4E-CD43-BED2-7511182DE986}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="100" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Attendify - Course Import Template</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>• Sheet dữ liệu: 'Courses'</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>• Header bắt buộc (dòng 1): courseCode | courseName | credits</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>• credits: số nguyên từ 0..50 (có thể để trống) — đã đặt sẵn Data Validation cho cả cột từ dòng 2 trở đi.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>• Vui lòng không sửa tên cột. Có thể để trống một vài ô nếu hệ thống cho phép.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Ví dụ:</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>courseCode | courseName | credits</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CS101      | Intro to Programming | 3</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
